--- a/team_specific_matrix/Ohio_A.xlsx
+++ b/team_specific_matrix/Ohio_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.1879350348027842</v>
       </c>
       <c r="C2">
-        <v>0.5363636363636364</v>
+        <v>0.5707656612529002</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01818181818181818</v>
+        <v>0.01624129930394431</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.15</v>
+        <v>0.1461716937354988</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09545454545454546</v>
+        <v>0.07888631090487239</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01680672268907563</v>
+        <v>0.008032128514056224</v>
       </c>
       <c r="C3">
-        <v>0.02521008403361345</v>
+        <v>0.02008032128514056</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.008403361344537815</v>
+        <v>0.008032128514056224</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7563025210084033</v>
+        <v>0.7831325301204819</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1932773109243698</v>
+        <v>0.1807228915662651</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03448275862068965</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8275862068965517</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1379310344827586</v>
+        <v>0.1186440677966102</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04458598726114649</v>
+        <v>0.05031446540880503</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006369426751592357</v>
+        <v>0.01572327044025157</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05095541401273886</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2420382165605096</v>
+        <v>0.2389937106918239</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01273885350318471</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2229299363057325</v>
+        <v>0.1918238993710692</v>
       </c>
       <c r="R6">
-        <v>0.1464968152866242</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="S6">
-        <v>0.2738853503184713</v>
+        <v>0.3176100628930817</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1292517006802721</v>
+        <v>0.1137931034482759</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0272108843537415</v>
+        <v>0.04827586206896552</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1428571428571428</v>
+        <v>0.1275862068965517</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0272108843537415</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2108843537414966</v>
+        <v>0.2172413793103448</v>
       </c>
       <c r="R7">
-        <v>0.07482993197278912</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="S7">
-        <v>0.3877551020408163</v>
+        <v>0.3896551724137931</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07761194029850746</v>
+        <v>0.101620029455081</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01194029850746269</v>
+        <v>0.007363770250368188</v>
       </c>
       <c r="E8">
-        <v>0.005970149253731343</v>
+        <v>0.002945508100147275</v>
       </c>
       <c r="F8">
-        <v>0.07761194029850746</v>
+        <v>0.07511045655375552</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1402985074626866</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.008955223880597015</v>
+        <v>0.0117820324005891</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1791044776119403</v>
+        <v>0.1899852724594993</v>
       </c>
       <c r="R8">
-        <v>0.09850746268656717</v>
+        <v>0.101620029455081</v>
       </c>
       <c r="S8">
-        <v>0.4</v>
+        <v>0.3652430044182621</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1158536585365854</v>
+        <v>0.1220338983050848</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01219512195121951</v>
+        <v>0.01016949152542373</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04878048780487805</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1219512195121951</v>
+        <v>0.1220338983050848</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02439024390243903</v>
+        <v>0.02033898305084746</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1524390243902439</v>
+        <v>0.1627118644067796</v>
       </c>
       <c r="R9">
-        <v>0.1036585365853658</v>
+        <v>0.0711864406779661</v>
       </c>
       <c r="S9">
-        <v>0.4207317073170732</v>
+        <v>0.4406779661016949</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1023069207622869</v>
+        <v>0.1032813340505648</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02206619859578736</v>
+        <v>0.02205486820871436</v>
       </c>
       <c r="E10">
-        <v>0.001003009027081244</v>
+        <v>0.0005379236148466917</v>
       </c>
       <c r="F10">
-        <v>0.07221664994984955</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1023069207622869</v>
+        <v>0.1043571812802582</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01103309929789368</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2116349047141424</v>
+        <v>0.2157073695535234</v>
       </c>
       <c r="R10">
-        <v>0.1003009027081244</v>
+        <v>0.09306078536847767</v>
       </c>
       <c r="S10">
-        <v>0.3771313941825477</v>
+        <v>0.3722431414739107</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1434426229508197</v>
+        <v>0.1266968325791855</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09016393442622951</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="K11">
-        <v>0.1721311475409836</v>
+        <v>0.1606334841628959</v>
       </c>
       <c r="L11">
-        <v>0.5819672131147541</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01229508196721311</v>
+        <v>0.006787330316742082</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6896551724137931</v>
+        <v>0.7266187050359713</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2413793103448276</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="K12">
-        <v>0.006896551724137931</v>
+        <v>0.003597122302158274</v>
       </c>
       <c r="L12">
-        <v>0.02068965517241379</v>
+        <v>0.02158273381294964</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04137931034482759</v>
+        <v>0.02517985611510791</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5882352941176471</v>
+        <v>0.640625</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3823529411764706</v>
+        <v>0.328125</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02941176470588235</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01298701298701299</v>
+        <v>0.01238390092879257</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1233766233766234</v>
+        <v>0.173374613003096</v>
       </c>
       <c r="I15">
-        <v>0.07792207792207792</v>
+        <v>0.06811145510835913</v>
       </c>
       <c r="J15">
-        <v>0.4090909090909091</v>
+        <v>0.3653250773993808</v>
       </c>
       <c r="K15">
-        <v>0.05844155844155844</v>
+        <v>0.06191950464396285</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01298701298701299</v>
+        <v>0.01547987616099071</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.003095975232198143</v>
       </c>
       <c r="O15">
-        <v>0.02597402597402598</v>
+        <v>0.06191950464396285</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2792207792207792</v>
+        <v>0.238390092879257</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006896551724137931</v>
+        <v>0.009966777408637873</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1379310344827586</v>
+        <v>0.1661129568106312</v>
       </c>
       <c r="I16">
-        <v>0.1172413793103448</v>
+        <v>0.09966777408637874</v>
       </c>
       <c r="J16">
-        <v>0.3448275862068966</v>
+        <v>0.3621262458471761</v>
       </c>
       <c r="K16">
-        <v>0.1655172413793103</v>
+        <v>0.1295681063122923</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02758620689655172</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05517241379310345</v>
+        <v>0.05315614617940199</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1448275862068966</v>
+        <v>0.1561461794019934</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01400560224089636</v>
+        <v>0.01296829971181556</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2016806722689076</v>
+        <v>0.1858789625360231</v>
       </c>
       <c r="I17">
-        <v>0.08683473389355742</v>
+        <v>0.09221902017291066</v>
       </c>
       <c r="J17">
-        <v>0.4397759103641457</v>
+        <v>0.4020172910662824</v>
       </c>
       <c r="K17">
-        <v>0.0896358543417367</v>
+        <v>0.1051873198847262</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02521008403361345</v>
+        <v>0.02161383285302594</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04481792717086835</v>
+        <v>0.0590778097982709</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09803921568627451</v>
+        <v>0.1210374639769452</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03804347826086957</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1630434782608696</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.1195652173913044</v>
+        <v>0.09206349206349207</v>
       </c>
       <c r="J18">
-        <v>0.4076086956521739</v>
+        <v>0.3841269841269842</v>
       </c>
       <c r="K18">
-        <v>0.08695652173913043</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01630434782608696</v>
+        <v>0.0126984126984127</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06521739130434782</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1032608695652174</v>
+        <v>0.1047619047619048</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.007231404958677686</v>
+        <v>0.01032608695652174</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2045454545454546</v>
+        <v>0.2097826086956522</v>
       </c>
       <c r="I19">
-        <v>0.08264462809917356</v>
+        <v>0.08043478260869565</v>
       </c>
       <c r="J19">
-        <v>0.3708677685950413</v>
+        <v>0.3679347826086957</v>
       </c>
       <c r="K19">
-        <v>0.1167355371900826</v>
+        <v>0.1103260869565217</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01859504132231405</v>
+        <v>0.01956521739130435</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07024793388429752</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1291322314049587</v>
+        <v>0.1309782608695652</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Ohio_A.xlsx
+++ b/team_specific_matrix/Ohio_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1879350348027842</v>
+        <v>0.1927194860813705</v>
       </c>
       <c r="C2">
-        <v>0.5707656612529002</v>
+        <v>0.5674518201284796</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01624129930394431</v>
+        <v>0.01713062098501071</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1461716937354988</v>
+        <v>0.145610278372591</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07888631090487239</v>
+        <v>0.07708779443254818</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008032128514056224</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C3">
-        <v>0.02008032128514056</v>
+        <v>0.01865671641791045</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.008032128514056224</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7831325301204819</v>
+        <v>0.7910447761194029</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1807228915662651</v>
+        <v>0.1753731343283582</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03389830508474576</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.847457627118644</v>
+        <v>0.8548387096774194</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1186440677966102</v>
+        <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05031446540880503</v>
+        <v>0.0469208211143695</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01572327044025157</v>
+        <v>0.01466275659824047</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0660377358490566</v>
+        <v>0.06744868035190615</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2389937106918239</v>
+        <v>0.2521994134897361</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01257861635220126</v>
+        <v>0.01173020527859238</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1918238993710692</v>
+        <v>0.1847507331378299</v>
       </c>
       <c r="R6">
-        <v>0.1069182389937107</v>
+        <v>0.09970674486803519</v>
       </c>
       <c r="S6">
-        <v>0.3176100628930817</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1137931034482759</v>
+        <v>0.1150159744408946</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02068965517241379</v>
+        <v>0.01916932907348243</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04827586206896552</v>
+        <v>0.05111821086261981</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1275862068965517</v>
+        <v>0.134185303514377</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02068965517241379</v>
+        <v>0.01916932907348243</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2172413793103448</v>
+        <v>0.2044728434504792</v>
       </c>
       <c r="R7">
-        <v>0.06206896551724138</v>
+        <v>0.0670926517571885</v>
       </c>
       <c r="S7">
-        <v>0.3896551724137931</v>
+        <v>0.389776357827476</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.101620029455081</v>
+        <v>0.1049723756906077</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007363770250368188</v>
+        <v>0.008287292817679558</v>
       </c>
       <c r="E8">
-        <v>0.002945508100147275</v>
+        <v>0.002762430939226519</v>
       </c>
       <c r="F8">
-        <v>0.07511045655375552</v>
+        <v>0.07458563535911603</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1443298969072165</v>
+        <v>0.1422651933701657</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0117820324005891</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1899852724594993</v>
+        <v>0.1947513812154696</v>
       </c>
       <c r="R8">
-        <v>0.101620029455081</v>
+        <v>0.1022099447513812</v>
       </c>
       <c r="S8">
-        <v>0.3652430044182621</v>
+        <v>0.3591160220994475</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1220338983050848</v>
+        <v>0.1241830065359477</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01016949152542373</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05084745762711865</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1220338983050848</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02033898305084746</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1627118644067796</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R9">
-        <v>0.0711864406779661</v>
+        <v>0.07516339869281045</v>
       </c>
       <c r="S9">
-        <v>0.4406779661016949</v>
+        <v>0.434640522875817</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1032813340505648</v>
+        <v>0.1033099297893681</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02205486820871436</v>
+        <v>0.02156469408224674</v>
       </c>
       <c r="E10">
-        <v>0.0005379236148466917</v>
+        <v>0.0005015045135406219</v>
       </c>
       <c r="F10">
-        <v>0.07692307692307693</v>
+        <v>0.07472417251755266</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1043571812802582</v>
+        <v>0.1038114343029087</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01183431952662722</v>
+        <v>0.01203610832497492</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2157073695535234</v>
+        <v>0.2166499498495486</v>
       </c>
       <c r="R10">
-        <v>0.09306078536847767</v>
+        <v>0.09327983951855567</v>
       </c>
       <c r="S10">
-        <v>0.3722431414739107</v>
+        <v>0.3741223671013039</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1266968325791855</v>
+        <v>0.1340425531914894</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09049773755656108</v>
+        <v>0.09148936170212765</v>
       </c>
       <c r="K11">
-        <v>0.1606334841628959</v>
+        <v>0.1638297872340425</v>
       </c>
       <c r="L11">
-        <v>0.6153846153846154</v>
+        <v>0.6042553191489362</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006787330316742082</v>
+        <v>0.006382978723404255</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7266187050359713</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.223021582733813</v>
+        <v>0.2157534246575342</v>
       </c>
       <c r="K12">
-        <v>0.003597122302158274</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="L12">
-        <v>0.02158273381294964</v>
+        <v>0.03082191780821918</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02517985611510791</v>
+        <v>0.02397260273972603</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.640625</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.328125</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03125</v>
+        <v>0.0273972602739726</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01238390092879257</v>
+        <v>0.01159420289855072</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.173374613003096</v>
+        <v>0.1768115942028985</v>
       </c>
       <c r="I15">
-        <v>0.06811145510835913</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J15">
-        <v>0.3653250773993808</v>
+        <v>0.3594202898550725</v>
       </c>
       <c r="K15">
-        <v>0.06191950464396285</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01547987616099071</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="N15">
-        <v>0.003095975232198143</v>
+        <v>0.002898550724637681</v>
       </c>
       <c r="O15">
-        <v>0.06191950464396285</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.238390092879257</v>
+        <v>0.2376811594202899</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009966777408637873</v>
+        <v>0.01547987616099071</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1661129568106312</v>
+        <v>0.1671826625386997</v>
       </c>
       <c r="I16">
-        <v>0.09966777408637874</v>
+        <v>0.09287925696594428</v>
       </c>
       <c r="J16">
-        <v>0.3621262458471761</v>
+        <v>0.3653250773993808</v>
       </c>
       <c r="K16">
-        <v>0.1295681063122923</v>
+        <v>0.1269349845201238</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02325581395348837</v>
+        <v>0.02476780185758514</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05315614617940199</v>
+        <v>0.04953560371517028</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1561461794019934</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01296829971181556</v>
+        <v>0.01211305518169583</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1858789625360231</v>
+        <v>0.1830417227456258</v>
       </c>
       <c r="I17">
-        <v>0.09221902017291066</v>
+        <v>0.08882907133243607</v>
       </c>
       <c r="J17">
-        <v>0.4020172910662824</v>
+        <v>0.4078061911170929</v>
       </c>
       <c r="K17">
-        <v>0.1051873198847262</v>
+        <v>0.1036339165545088</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02161383285302594</v>
+        <v>0.02153432032301481</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0590778097982709</v>
+        <v>0.06056527590847914</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1210374639769452</v>
+        <v>0.1224764468371467</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0380952380952381</v>
+        <v>0.04129793510324484</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.2005899705014749</v>
       </c>
       <c r="I18">
-        <v>0.09206349206349207</v>
+        <v>0.0943952802359882</v>
       </c>
       <c r="J18">
-        <v>0.3841269841269842</v>
+        <v>0.3864306784660767</v>
       </c>
       <c r="K18">
-        <v>0.08888888888888889</v>
+        <v>0.08259587020648967</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0126984126984127</v>
+        <v>0.01474926253687316</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07936507936507936</v>
+        <v>0.07669616519174041</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1047619047619048</v>
+        <v>0.1032448377581121</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01032608695652174</v>
+        <v>0.01070336391437309</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2097826086956522</v>
+        <v>0.2089704383282365</v>
       </c>
       <c r="I19">
-        <v>0.08043478260869565</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="J19">
-        <v>0.3679347826086957</v>
+        <v>0.3700305810397553</v>
       </c>
       <c r="K19">
-        <v>0.1103260869565217</v>
+        <v>0.109072375127421</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01956521739130435</v>
+        <v>0.02089704383282365</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07065217391304347</v>
+        <v>0.07186544342507645</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1309782608695652</v>
+        <v>0.1304791029561672</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Ohio_A.xlsx
+++ b/team_specific_matrix/Ohio_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1927194860813705</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="C2">
-        <v>0.5674518201284796</v>
+        <v>0.5886075949367089</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01713062098501071</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.145610278372591</v>
+        <v>0.1360759493670886</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07708779443254818</v>
+        <v>0.07911392405063292</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007462686567164179</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C3">
-        <v>0.01865671641791045</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007462686567164179</v>
+        <v>0.01322751322751323</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.002645502645502645</v>
       </c>
       <c r="P3">
-        <v>0.7910447761194029</v>
+        <v>0.7671957671957672</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1753731343283582</v>
+        <v>0.1878306878306878</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03225806451612903</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8548387096774194</v>
+        <v>0.8117647058823529</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1129032258064516</v>
+        <v>0.1647058823529412</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0469208211143695</v>
+        <v>0.04631578947368421</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01466275659824047</v>
+        <v>0.01263157894736842</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06744868035190615</v>
+        <v>0.06736842105263158</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2521994134897361</v>
+        <v>0.271578947368421</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01173020527859238</v>
+        <v>0.02315789473684211</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1847507331378299</v>
+        <v>0.1810526315789474</v>
       </c>
       <c r="R6">
-        <v>0.09970674486803519</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="S6">
-        <v>0.3225806451612903</v>
+        <v>0.3031578947368421</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1150159744408946</v>
+        <v>0.1206030150753769</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01916932907348243</v>
+        <v>0.02261306532663317</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05111821086261981</v>
+        <v>0.05276381909547739</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.134185303514377</v>
+        <v>0.1381909547738693</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01916932907348243</v>
+        <v>0.01758793969849246</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2044728434504792</v>
+        <v>0.1884422110552764</v>
       </c>
       <c r="R7">
-        <v>0.0670926517571885</v>
+        <v>0.0678391959798995</v>
       </c>
       <c r="S7">
-        <v>0.389776357827476</v>
+        <v>0.3919597989949749</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1049723756906077</v>
+        <v>0.1003236245954693</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008287292817679558</v>
+        <v>0.008629989212513484</v>
       </c>
       <c r="E8">
-        <v>0.002762430939226519</v>
+        <v>0.002157497303128371</v>
       </c>
       <c r="F8">
-        <v>0.07458563535911603</v>
+        <v>0.07011866235167206</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1422651933701657</v>
+        <v>0.1477885652642934</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01104972375690608</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1947513812154696</v>
+        <v>0.1909385113268608</v>
       </c>
       <c r="R8">
-        <v>0.1022099447513812</v>
+        <v>0.1057173678532902</v>
       </c>
       <c r="S8">
-        <v>0.3591160220994475</v>
+        <v>0.3646170442286947</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1241830065359477</v>
+        <v>0.1212871287128713</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009803921568627451</v>
+        <v>0.01237623762376238</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05228758169934641</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1176470588235294</v>
+        <v>0.1262376237623762</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0196078431372549</v>
+        <v>0.01732673267326733</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1666666666666667</v>
+        <v>0.1658415841584159</v>
       </c>
       <c r="R9">
-        <v>0.07516339869281045</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="S9">
-        <v>0.434640522875817</v>
+        <v>0.4084158415841584</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1033099297893681</v>
+        <v>0.1097108969607116</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02156469408224674</v>
+        <v>0.02149740548554485</v>
       </c>
       <c r="E10">
-        <v>0.0005015045135406219</v>
+        <v>0.0007412898443291327</v>
       </c>
       <c r="F10">
-        <v>0.07472417251755266</v>
+        <v>0.0737583395107487</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1038114343029087</v>
+        <v>0.1104521868050408</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01203610832497492</v>
+        <v>0.01334321719792439</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2166499498495486</v>
+        <v>0.2138621200889548</v>
       </c>
       <c r="R10">
-        <v>0.09327983951855567</v>
+        <v>0.09006671608598962</v>
       </c>
       <c r="S10">
-        <v>0.3741223671013039</v>
+        <v>0.3665678280207561</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1340425531914894</v>
+        <v>0.1479674796747968</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09148936170212765</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="K11">
-        <v>0.1638297872340425</v>
+        <v>0.1886178861788618</v>
       </c>
       <c r="L11">
-        <v>0.6042553191489362</v>
+        <v>0.5544715447154471</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006382978723404255</v>
+        <v>0.006504065040650406</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7226027397260274</v>
+        <v>0.7321937321937322</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2157534246575342</v>
+        <v>0.207977207977208</v>
       </c>
       <c r="K12">
-        <v>0.00684931506849315</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="L12">
-        <v>0.03082191780821918</v>
+        <v>0.02849002849002849</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02397260273972603</v>
+        <v>0.02279202279202279</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6575342465753424</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3150684931506849</v>
+        <v>0.2934782608695652</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0273972602739726</v>
+        <v>0.03260869565217391</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01159420289855072</v>
+        <v>0.01511879049676026</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1768115942028985</v>
+        <v>0.1749460043196544</v>
       </c>
       <c r="I15">
-        <v>0.06666666666666667</v>
+        <v>0.06479481641468683</v>
       </c>
       <c r="J15">
-        <v>0.3594202898550725</v>
+        <v>0.3542116630669546</v>
       </c>
       <c r="K15">
-        <v>0.06666666666666667</v>
+        <v>0.06695464362850972</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01739130434782609</v>
+        <v>0.01295896328293736</v>
       </c>
       <c r="N15">
-        <v>0.002898550724637681</v>
+        <v>0.002159827213822894</v>
       </c>
       <c r="O15">
-        <v>0.06086956521739131</v>
+        <v>0.06263498920086392</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2376811594202899</v>
+        <v>0.2462203023758099</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01547987616099071</v>
+        <v>0.01627906976744186</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1671826625386997</v>
+        <v>0.1604651162790698</v>
       </c>
       <c r="I16">
-        <v>0.09287925696594428</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="J16">
-        <v>0.3653250773993808</v>
+        <v>0.3744186046511628</v>
       </c>
       <c r="K16">
-        <v>0.1269349845201238</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02476780185758514</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04953560371517028</v>
+        <v>0.05348837209302326</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1578947368421053</v>
+        <v>0.1604651162790698</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01211305518169583</v>
+        <v>0.02361396303901437</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1830417227456258</v>
+        <v>0.1765913757700205</v>
       </c>
       <c r="I17">
-        <v>0.08882907133243607</v>
+        <v>0.09240246406570841</v>
       </c>
       <c r="J17">
-        <v>0.4078061911170929</v>
+        <v>0.4158110882956879</v>
       </c>
       <c r="K17">
-        <v>0.1036339165545088</v>
+        <v>0.09650924024640657</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02153432032301481</v>
+        <v>0.02053388090349076</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06056527590847914</v>
+        <v>0.06160164271047228</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1224764468371467</v>
+        <v>0.1129363449691992</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04129793510324484</v>
+        <v>0.03555555555555556</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2005899705014749</v>
+        <v>0.1911111111111111</v>
       </c>
       <c r="I18">
-        <v>0.0943952802359882</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="J18">
-        <v>0.3864306784660767</v>
+        <v>0.4155555555555556</v>
       </c>
       <c r="K18">
-        <v>0.08259587020648967</v>
+        <v>0.06888888888888889</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01474926253687316</v>
+        <v>0.01555555555555556</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07669616519174041</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1032448377581121</v>
+        <v>0.1088888888888889</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01070336391437309</v>
+        <v>0.01396431342125679</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2089704383282365</v>
+        <v>0.2040341349883631</v>
       </c>
       <c r="I19">
-        <v>0.07798165137614679</v>
+        <v>0.07874321179208689</v>
       </c>
       <c r="J19">
-        <v>0.3700305810397553</v>
+        <v>0.3719937936384795</v>
       </c>
       <c r="K19">
-        <v>0.109072375127421</v>
+        <v>0.1078355314197052</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02089704383282365</v>
+        <v>0.02055857253685027</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0003878975950349108</v>
       </c>
       <c r="O19">
-        <v>0.07186544342507645</v>
+        <v>0.07408844065166796</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1304791029561672</v>
+        <v>0.1283941039565555</v>
       </c>
     </row>
   </sheetData>
